--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.327882596873648</v>
+        <v>0.3493111683022194</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.32788259687364796, 'ngram_match_score': 0.15689908053890592, 'weighted_ngram_match_score': 0.16934992167430077, 'syntax_match_score': 0.7186147186147186, 'dataflow_match_score': 0.26666666666666666}</t>
+          <t>{'codebleu': 0.3493111683022194, 'ngram_match_score': 0.15689908053890592, 'weighted_ngram_match_score': 0.16934992167430077, 'syntax_match_score': 0.7186147186147186, 'dataflow_match_score': 0.3523809523809524}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3493111683022194</v>
+        <v>0.3421683111593622</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3493111683022194, 'ngram_match_score': 0.15689908053890592, 'weighted_ngram_match_score': 0.16934992167430077, 'syntax_match_score': 0.7186147186147186, 'dataflow_match_score': 0.3523809523809524}</t>
+          <t>{'codebleu': 0.34216831115936225, 'ngram_match_score': 0.15689908053890592, 'weighted_ngram_match_score': 0.16934992167430077, 'syntax_match_score': 0.7186147186147186, 'dataflow_match_score': 0.3238095238095238}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
